--- a/input/labels.xlsx
+++ b/input/labels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaitrapeddireddy/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaitrapeddireddy/Documents/GitHub/local_field_potential/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{930F9217-21DB-BD41-91A9-A2C5E33339E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B6F019-58D8-764D-BDFD-A65F2EDCD774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,12 +529,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -564,9 +570,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -873,24 +885,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -905,28 +919,28 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
